--- a/data/trans_orig/P57_AC_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>312815</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>290282</v>
+        <v>290955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>332347</v>
+        <v>333220</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6617736476598097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6141042591486691</v>
+        <v>0.6155280688351807</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.703094922442927</v>
+        <v>0.7049410336630123</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -765,19 +765,19 @@
         <v>199621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183789</v>
+        <v>179960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214422</v>
+        <v>215036</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6533612378944339</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6015421295181992</v>
+        <v>0.5890102570227149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7018057454121225</v>
+        <v>0.7038161631078851</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>492</v>
@@ -786,19 +786,19 @@
         <v>512436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>486443</v>
+        <v>485408</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539226</v>
+        <v>538080</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6584709381561646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6250700119475751</v>
+        <v>0.6237407663931265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6928951835371481</v>
+        <v>0.6914225583447069</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>159877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140345</v>
+        <v>139472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182410</v>
+        <v>181737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3382263523401903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.296905077557073</v>
+        <v>0.2950589663369877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3858957408513308</v>
+        <v>0.3844719311648193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -836,19 +836,19 @@
         <v>105908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91107</v>
+        <v>90493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121740</v>
+        <v>125569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.346638762105566</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2981942545878773</v>
+        <v>0.2961838368921149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3984578704818008</v>
+        <v>0.410989742977285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>259</v>
@@ -857,19 +857,19 @@
         <v>265785</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238995</v>
+        <v>240141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>291778</v>
+        <v>292813</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3415290618438354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3071048164628519</v>
+        <v>0.3085774416552932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.374929988052425</v>
+        <v>0.3762592336068735</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>226509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>207553</v>
+        <v>206942</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>245457</v>
+        <v>244571</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6199201243742191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5680394705889985</v>
+        <v>0.5663696467046456</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6717793849835834</v>
+        <v>0.6693545101617177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>238</v>
@@ -982,19 +982,19 @@
         <v>245286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>227299</v>
+        <v>227592</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265357</v>
+        <v>263492</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6596093653636278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6112408456929056</v>
+        <v>0.6120295938297615</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7135832106206843</v>
+        <v>0.7085699586455797</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>459</v>
@@ -1003,19 +1003,19 @@
         <v>471795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>444265</v>
+        <v>444631</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>499917</v>
+        <v>499892</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6399391878871404</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6025986568743728</v>
+        <v>0.6030945602819225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6780839470216562</v>
+        <v>0.6780499473356137</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>138875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>119927</v>
+        <v>120813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>157831</v>
+        <v>158442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3800798756257809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3282206150164167</v>
+        <v>0.3306454898382823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4319605294110015</v>
+        <v>0.4336303532953547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>125</v>
@@ -1053,19 +1053,19 @@
         <v>126579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106508</v>
+        <v>108373</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>144566</v>
+        <v>144273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3403906346363722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2864167893793156</v>
+        <v>0.2914300413544203</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3887591543070942</v>
+        <v>0.3879704061702384</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>253</v>
@@ -1074,19 +1074,19 @@
         <v>265454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>237332</v>
+        <v>237357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>292984</v>
+        <v>292618</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3600608121128596</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3219160529783439</v>
+        <v>0.3219500526643863</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3974013431256273</v>
+        <v>0.3969054397180775</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>388951</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>366750</v>
+        <v>365930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>410979</v>
+        <v>409289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7171077669263755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6761755109851197</v>
+        <v>0.6746635325053228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7577197428279446</v>
+        <v>0.754604818364071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -1199,19 +1199,19 @@
         <v>116649</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105294</v>
+        <v>105005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127408</v>
+        <v>127241</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6993246733728429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6312537468193424</v>
+        <v>0.6295171040440195</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7638273414192437</v>
+        <v>0.7628281643053495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>496</v>
@@ -1220,19 +1220,19 @@
         <v>505600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>480249</v>
+        <v>480464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>528281</v>
+        <v>528970</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7129251795156444</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6771783399803979</v>
+        <v>0.677481729720413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7449059413836486</v>
+        <v>0.7458776543784587</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>153438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131410</v>
+        <v>133100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175639</v>
+        <v>176459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2828922330736245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2422802571720551</v>
+        <v>0.2453951816359292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3238244890148801</v>
+        <v>0.3253364674946772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -1270,19 +1270,19 @@
         <v>50153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39394</v>
+        <v>39561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61508</v>
+        <v>61797</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3006753266271571</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2361726585807562</v>
+        <v>0.2371718356946505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3687462531806575</v>
+        <v>0.3704828959559804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>199</v>
@@ -1291,19 +1291,19 @@
         <v>203591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180910</v>
+        <v>180221</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>228942</v>
+        <v>228727</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2870748204843556</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2550940586163515</v>
+        <v>0.2541223456215413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3228216600196021</v>
+        <v>0.322518270279587</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>875096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>840710</v>
+        <v>841632</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>907834</v>
+        <v>906808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7066719583256998</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.678903937035894</v>
+        <v>0.6796482606066652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7331087996926497</v>
+        <v>0.7322802996344085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>507</v>
@@ -1416,19 +1416,19 @@
         <v>522614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>496973</v>
+        <v>495985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>544281</v>
+        <v>545379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7316604516550946</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6957633744738021</v>
+        <v>0.6943793870624305</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7619935831409751</v>
+        <v>0.7635317499127471</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1374</v>
@@ -1437,19 +1437,19 @@
         <v>1397711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1355706</v>
+        <v>1358979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1437822</v>
+        <v>1437577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7158129671605168</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6943007935387288</v>
+        <v>0.6959773079175738</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7363550913508188</v>
+        <v>0.7362295769603299</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>363238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>330500</v>
+        <v>331526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>397624</v>
+        <v>396702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2933280416743002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.26689120030735</v>
+        <v>0.2677197003655915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3210960629641056</v>
+        <v>0.3203517393933349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>187</v>
@@ -1487,19 +1487,19 @@
         <v>191671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>170004</v>
+        <v>168906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>217312</v>
+        <v>218300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2683395483449054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.238006416859025</v>
+        <v>0.2364682500872529</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3042366255261981</v>
+        <v>0.3056206129375695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>544</v>
@@ -1508,19 +1508,19 @@
         <v>554909</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514798</v>
+        <v>515043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>596914</v>
+        <v>593641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2841870328394832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2636449086491812</v>
+        <v>0.2637704230396701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3056992064612712</v>
+        <v>0.304022692082426</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>248996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>229614</v>
+        <v>231380</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265590</v>
+        <v>266654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7102895498078857</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.65499997881383</v>
+        <v>0.6600389848892129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7576279276832852</v>
+        <v>0.7606631748903793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>411</v>
@@ -1633,19 +1633,19 @@
         <v>441046</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>419429</v>
+        <v>420226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>459955</v>
+        <v>459662</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7754626903576823</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7374549199699457</v>
+        <v>0.7388557294792683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.808708583666883</v>
+        <v>0.8081945002400875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>653</v>
@@ -1654,19 +1654,19 @@
         <v>690041</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>658712</v>
+        <v>663489</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>712888</v>
+        <v>718255</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7506105081008565</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7165311133709387</v>
+        <v>0.7217274303980622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7754628723361785</v>
+        <v>0.7813003914472759</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>101559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84965</v>
+        <v>83901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120941</v>
+        <v>119175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2897104501921143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2423720723167148</v>
+        <v>0.2393368251096207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.34500002118617</v>
+        <v>0.3399610151107872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -1704,19 +1704,19 @@
         <v>127706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108797</v>
+        <v>109090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>149323</v>
+        <v>148526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2245373096423177</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1912914163331169</v>
+        <v>0.1918054997599125</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2625450800300542</v>
+        <v>0.261144270520732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>226</v>
@@ -1725,19 +1725,19 @@
         <v>229266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206419</v>
+        <v>201052</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>260595</v>
+        <v>255818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2493894918991435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2245371276638214</v>
+        <v>0.218699608552724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2834688866290613</v>
+        <v>0.2782725696019367</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>168604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>151005</v>
+        <v>150995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184738</v>
+        <v>186284</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5654044067009366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5063870445807197</v>
+        <v>0.5063521089323059</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6195081255809478</v>
+        <v>0.6246934880395837</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>846</v>
@@ -1850,19 +1850,19 @@
         <v>862422</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>829445</v>
+        <v>829954</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>894309</v>
+        <v>895234</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6906229667633564</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6642149704032442</v>
+        <v>0.664622329316828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7161576135945823</v>
+        <v>0.7168980681262886</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1018</v>
@@ -1871,19 +1871,19 @@
         <v>1031026</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>990358</v>
+        <v>995177</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1066120</v>
+        <v>1067296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6664851517963872</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6401963513877111</v>
+        <v>0.6433114174231949</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.68917070510039</v>
+        <v>0.6899314124730316</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>129597</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113463</v>
+        <v>111917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147196</v>
+        <v>147206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4345955932990634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3804918744190521</v>
+        <v>0.3753065119604161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4936129554192802</v>
+        <v>0.4936478910676941</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>392</v>
@@ -1921,19 +1921,19 @@
         <v>386338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>354451</v>
+        <v>353526</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>419315</v>
+        <v>418806</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3093770332366436</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2838423864054176</v>
+        <v>0.2831019318737115</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3357850295967558</v>
+        <v>0.335377670683172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -1942,19 +1942,19 @@
         <v>515934</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>480840</v>
+        <v>479664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>556602</v>
+        <v>551783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3335148482036128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3108292948996099</v>
+        <v>0.3100685875269683</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3598036486122887</v>
+        <v>0.3566885825768048</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2220972</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2170784</v>
+        <v>2168114</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2273286</v>
+        <v>2272654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6797042658156592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6643449051945585</v>
+        <v>0.6635276805238123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6957145584616919</v>
+        <v>0.6955211251931293</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2308</v>
@@ -2067,19 +2067,19 @@
         <v>2387638</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2335877</v>
+        <v>2334981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2441160</v>
+        <v>2436698</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7072400772568092</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6919080230863305</v>
+        <v>0.691642861026909</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7230937976936617</v>
+        <v>0.7217722319231172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4492</v>
@@ -2088,19 +2088,19 @@
         <v>4608609</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4532246</v>
+        <v>4531675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4680252</v>
+        <v>4679492</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6936968946487169</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6822025243305767</v>
+        <v>0.6821166356535038</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7044806214729719</v>
+        <v>0.7043663574820043</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1046584</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>994270</v>
+        <v>994902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1096772</v>
+        <v>1099442</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3202957341843408</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3042854415383081</v>
+        <v>0.3044788748068709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3356550948054416</v>
+        <v>0.3364723194761877</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>986</v>
@@ -2138,19 +2138,19 @@
         <v>988355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>934833</v>
+        <v>939295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1040116</v>
+        <v>1041012</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2927599227431909</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2769062023063383</v>
+        <v>0.2782277680768826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3080919769136695</v>
+        <v>0.3083571389730907</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2007</v>
@@ -2159,19 +2159,19 @@
         <v>2034940</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1963297</v>
+        <v>1964057</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2111303</v>
+        <v>2111874</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3063031053512831</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2955193785270283</v>
+        <v>0.2956336425179958</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3177974756694233</v>
+        <v>0.3178833643464963</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>275500</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>253586</v>
+        <v>254977</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>296236</v>
+        <v>295863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6316448783894664</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5814029674827776</v>
+        <v>0.5845913386198855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6791854205375846</v>
+        <v>0.6783303350670901</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>189</v>
@@ -2526,19 +2526,19 @@
         <v>210193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190201</v>
+        <v>193223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>227282</v>
+        <v>228550</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.675347380357998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6111115241457457</v>
+        <v>0.6208238768111144</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7302533592816467</v>
+        <v>0.7343286590185165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>442</v>
@@ -2547,19 +2547,19 @@
         <v>485693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>455579</v>
+        <v>457034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>512167</v>
+        <v>514118</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6498437687180486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6095518844238447</v>
+        <v>0.6114983156831196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6852646876394097</v>
+        <v>0.6878756291176068</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>160663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139927</v>
+        <v>140300</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182577</v>
+        <v>181186</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3683551216105336</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3208145794624153</v>
+        <v>0.3216696649329099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4185970325172222</v>
+        <v>0.4154086613801146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -2597,19 +2597,19 @@
         <v>101044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83955</v>
+        <v>82687</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121036</v>
+        <v>118014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.324652619642002</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2697466407183534</v>
+        <v>0.2656713409814834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3888884758542545</v>
+        <v>0.3791761231888853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -2618,19 +2618,19 @@
         <v>261707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>235233</v>
+        <v>233282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>291821</v>
+        <v>290366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3501562312819513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3147353123605903</v>
+        <v>0.3121243708823931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3904481155761556</v>
+        <v>0.3885016843168804</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>273937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>252481</v>
+        <v>251997</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295589</v>
+        <v>293914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6572885041026427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6058076929540115</v>
+        <v>0.6046450268905116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7092406996347457</v>
+        <v>0.705221381844493</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>212</v>
@@ -2743,19 +2743,19 @@
         <v>235847</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219029</v>
+        <v>217399</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253795</v>
+        <v>252126</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7053937362222591</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.655091551224256</v>
+        <v>0.6502163006429867</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.759075237956475</v>
+        <v>0.7540830754080506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>454</v>
@@ -2764,19 +2764,19 @@
         <v>509784</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>481632</v>
+        <v>481509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537555</v>
+        <v>535169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.678701838286434</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6412208365292965</v>
+        <v>0.6410573536557498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.715674397426779</v>
+        <v>0.7124970584911294</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>142831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>121179</v>
+        <v>122854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>164287</v>
+        <v>164771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3427114958973572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2907593003652543</v>
+        <v>0.2947786181555069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3941923070459877</v>
+        <v>0.3953549731094884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>90</v>
@@ -2814,19 +2814,19 @@
         <v>98501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80553</v>
+        <v>82222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>115319</v>
+        <v>116949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.294606263777741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2409247620435251</v>
+        <v>0.2459169245919494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3449084487757442</v>
+        <v>0.3497836993570133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>221</v>
@@ -2835,19 +2835,19 @@
         <v>241333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>213562</v>
+        <v>215948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>269485</v>
+        <v>269608</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3212981617135659</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2843256025732209</v>
+        <v>0.2875029415088708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3587791634707034</v>
+        <v>0.3589426463442503</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>410402</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>385823</v>
+        <v>386011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>434715</v>
+        <v>432832</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6579879111335957</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6185819054226124</v>
+        <v>0.6188837232185153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6969691901779449</v>
+        <v>0.6939499640541569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -2960,19 +2960,19 @@
         <v>180770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165089</v>
+        <v>166356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195369</v>
+        <v>196716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6974332327132906</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6369335869954031</v>
+        <v>0.6418217450289365</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7537573871137901</v>
+        <v>0.7589559913389406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>551</v>
@@ -2981,19 +2981,19 @@
         <v>591171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>561698</v>
+        <v>563110</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>622455</v>
+        <v>621638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6695676755059569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6361865663463667</v>
+        <v>0.6377857287789994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7050005760796654</v>
+        <v>0.7040752002183819</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>213320</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189007</v>
+        <v>190890</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237899</v>
+        <v>237711</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3420120888664043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3030308098220552</v>
+        <v>0.3060500359458431</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3814180945773876</v>
+        <v>0.3811162767814847</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -3031,19 +3031,19 @@
         <v>78423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63824</v>
+        <v>62477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94104</v>
+        <v>92837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3025667672867094</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2462426128862098</v>
+        <v>0.241044008661059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3630664130045965</v>
+        <v>0.3581782549710635</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>278</v>
@@ -3052,19 +3052,19 @@
         <v>291743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>260459</v>
+        <v>261276</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>321216</v>
+        <v>319804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3304323244940431</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2949994239203348</v>
+        <v>0.2959247997816186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3638134336536342</v>
+        <v>0.3622142712210007</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>780063</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>747849</v>
+        <v>745687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>812793</v>
+        <v>809523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6788444908130465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6508106282428269</v>
+        <v>0.648929033191348</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7073272788008094</v>
+        <v>0.7044816737696457</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>546</v>
@@ -3177,19 +3177,19 @@
         <v>592703</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>568178</v>
+        <v>567133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>616216</v>
+        <v>613652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7761339866066378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7440186828891522</v>
+        <v>0.7426503413697028</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8069239269343018</v>
+        <v>0.8035654961991336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1271</v>
@@ -3198,19 +3198,19 @@
         <v>1372766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1333587</v>
+        <v>1331330</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1412218</v>
+        <v>1411310</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7176867985807794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6972038155680018</v>
+        <v>0.6960236636045068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7383120919527372</v>
+        <v>0.7378374649915169</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>369041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336311</v>
+        <v>339581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>401255</v>
+        <v>403417</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3211555091869535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2926727211991907</v>
+        <v>0.2955183262303544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3491893717571732</v>
+        <v>0.3510709668086521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -3248,19 +3248,19 @@
         <v>170958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147445</v>
+        <v>150009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195483</v>
+        <v>196528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2238660133933623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1930760730656982</v>
+        <v>0.1964345038008663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2559813171108478</v>
+        <v>0.2573496586302972</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>510</v>
@@ -3269,19 +3269,19 @@
         <v>539999</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>500547</v>
+        <v>501455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>579178</v>
+        <v>581435</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2823132014192206</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2616879080472625</v>
+        <v>0.2621625350084829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3027961844319981</v>
+        <v>0.3039763363954931</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>355915</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>336097</v>
+        <v>334648</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>376028</v>
+        <v>374825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.707048666346199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6676786213160126</v>
+        <v>0.6647999459637587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7470038576684753</v>
+        <v>0.7446147080363595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>530</v>
@@ -3394,19 +3394,19 @@
         <v>576276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>550109</v>
+        <v>551179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>599155</v>
+        <v>599573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7599532588876051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7254465504076263</v>
+        <v>0.7268579491971408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7901246844737143</v>
+        <v>0.790676910262071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>868</v>
@@ -3415,19 +3415,19 @@
         <v>932191</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>899273</v>
+        <v>902334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>962975</v>
+        <v>963099</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7388456330858808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.712754997242132</v>
+        <v>0.7151807568656751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7632442059957441</v>
+        <v>0.7633430968241967</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>147466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127353</v>
+        <v>128556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167284</v>
+        <v>168733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.292951333653801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2529961423315245</v>
+        <v>0.2553852919636403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3323213786839873</v>
+        <v>0.3352000540362413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>170</v>
@@ -3465,19 +3465,19 @@
         <v>182028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159149</v>
+        <v>158731</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208195</v>
+        <v>207125</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2400467411123949</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2098753155262858</v>
+        <v>0.209323089737929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2745534495923738</v>
+        <v>0.2731420508028593</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>312</v>
@@ -3486,19 +3486,19 @@
         <v>329495</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>298711</v>
+        <v>298587</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362413</v>
+        <v>359352</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2611543669141192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2367557940042557</v>
+        <v>0.2366569031758033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2872450027578679</v>
+        <v>0.2848192431343247</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>158606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143359</v>
+        <v>144145</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174827</v>
+        <v>174564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5985346305962558</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5409969117249083</v>
+        <v>0.5439624963213959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6597472701185391</v>
+        <v>0.6587532822088304</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>742</v>
@@ -3611,19 +3611,19 @@
         <v>788451</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>758001</v>
+        <v>756237</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>819530</v>
+        <v>816463</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.71399909410496</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6864245043291871</v>
+        <v>0.6848276996558271</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7421433137007073</v>
+        <v>0.7393662760530392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>900</v>
@@ -3632,19 +3632,19 @@
         <v>947057</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>911021</v>
+        <v>910006</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>979955</v>
+        <v>978886</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6916535284594292</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6653357347133383</v>
+        <v>0.6645942022177473</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7156792321762988</v>
+        <v>0.7148985155227791</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>106385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90164</v>
+        <v>90427</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121632</v>
+        <v>120846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4014653694037442</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3402527298814614</v>
+        <v>0.3412467177911697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.459003088275092</v>
+        <v>0.4560375036786041</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>298</v>
@@ -3682,19 +3682,19 @@
         <v>315823</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>284744</v>
+        <v>287811</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>346273</v>
+        <v>348037</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2860009058950401</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2578566862992928</v>
+        <v>0.2606337239469608</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3135754956708129</v>
+        <v>0.3151723003441729</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>403</v>
@@ -3703,19 +3703,19 @@
         <v>422208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>389310</v>
+        <v>390379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>458244</v>
+        <v>459259</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3083464715405709</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2843207678237012</v>
+        <v>0.2851014844772211</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3346642652866617</v>
+        <v>0.3354057977822531</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>2254422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2204091</v>
+        <v>2197819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2315211</v>
+        <v>2310846</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6642124114908553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6493834893492164</v>
+        <v>0.6475356038398432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6821225121848492</v>
+        <v>0.6808363571731747</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2389</v>
@@ -3828,19 +3828,19 @@
         <v>2584240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2529068</v>
+        <v>2530398</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2639429</v>
+        <v>2642636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7318682890584527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7162431690848646</v>
+        <v>0.7166198928103389</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7474979933289266</v>
+        <v>0.7484061351390022</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4486</v>
@@ -3849,19 +3849,19 @@
         <v>4838663</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4755475</v>
+        <v>4754461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4919116</v>
+        <v>4918599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6987090297586985</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6866966454762883</v>
+        <v>0.6865501957031762</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7103265898413977</v>
+        <v>0.7102518578062205</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1139706</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1078917</v>
+        <v>1083282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1190037</v>
+        <v>1196309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3357875885091447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3178774878151507</v>
+        <v>0.3191636428268252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3506165106507835</v>
+        <v>0.3524643961601568</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>884</v>
@@ -3899,19 +3899,19 @@
         <v>946778</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>891589</v>
+        <v>888382</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1001950</v>
+        <v>1000620</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2681317109415473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2525020066710734</v>
+        <v>0.2515938648609977</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2837568309151355</v>
+        <v>0.2833801071896612</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1965</v>
@@ -3920,19 +3920,19 @@
         <v>2086484</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2006031</v>
+        <v>2006548</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2169672</v>
+        <v>2170686</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3012909702413015</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2896734101586032</v>
+        <v>0.2897481421937798</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3133033545237118</v>
+        <v>0.3134498042968241</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>326582</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307379</v>
+        <v>305075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>344541</v>
+        <v>343309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7626386318355214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7177937627958769</v>
+        <v>0.712414882750753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8045761016672988</v>
+        <v>0.8016977024844415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>254</v>
@@ -4287,19 +4287,19 @@
         <v>266434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>249376</v>
+        <v>248402</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282316</v>
+        <v>280584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7720989471830625</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7226689665560838</v>
+        <v>0.71984543925302</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8181242928666731</v>
+        <v>0.8131066456062854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>556</v>
@@ -4308,19 +4308,19 @@
         <v>593016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>568738</v>
+        <v>568800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>617296</v>
+        <v>616155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7668601782530566</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7354646092302364</v>
+        <v>0.7355457253800484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7982578143994172</v>
+        <v>0.7967829784010536</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>101645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83686</v>
+        <v>84918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120848</v>
+        <v>123152</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2373613681644787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1954238983327012</v>
+        <v>0.1983022975155586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.282206237204123</v>
+        <v>0.287585117249247</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -4358,19 +4358,19 @@
         <v>78643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62761</v>
+        <v>64493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95701</v>
+        <v>96675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2279010528169376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.181875707133327</v>
+        <v>0.1868933543937147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2773310334439168</v>
+        <v>0.2801545607469801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -4379,19 +4379,19 @@
         <v>180288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>156008</v>
+        <v>157149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>204566</v>
+        <v>204504</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2331398217469434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2017421856005828</v>
+        <v>0.2032170215989464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2645353907697636</v>
+        <v>0.2644542746199516</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>277590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>259693</v>
+        <v>259368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>292665</v>
+        <v>294865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7440126638231961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6960439670686689</v>
+        <v>0.6951740742881741</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7844194391652325</v>
+        <v>0.7903144034216079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>273</v>
@@ -4504,19 +4504,19 @@
         <v>288368</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>270680</v>
+        <v>270922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>303688</v>
+        <v>303211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7787260733513146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7309621941885294</v>
+        <v>0.7316140518597714</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8200977772460585</v>
+        <v>0.8188110274433356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>532</v>
@@ -4525,19 +4525,19 @@
         <v>565957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>538505</v>
+        <v>538990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>590438</v>
+        <v>587117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7613042036366061</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7243766908816144</v>
+        <v>0.7250286385420979</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7942345073456647</v>
+        <v>0.7897679067545018</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>95508</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80433</v>
+        <v>78233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>113405</v>
+        <v>113730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2559873361768039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2155805608347676</v>
+        <v>0.2096855965783919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3039560329313313</v>
+        <v>0.3048259257118259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -4575,19 +4575,19 @@
         <v>81939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66619</v>
+        <v>67096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99627</v>
+        <v>99385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2212739266486854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1799022227539415</v>
+        <v>0.1811889725566645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2690378058114706</v>
+        <v>0.2683859481402286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>169</v>
@@ -4596,19 +4596,19 @@
         <v>177448</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152967</v>
+        <v>156288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>204900</v>
+        <v>204415</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2386957963633938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2057654926543348</v>
+        <v>0.2102320932454986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2756233091183855</v>
+        <v>0.2749713614579025</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>437855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>417960</v>
+        <v>420261</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>452657</v>
+        <v>453411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8404966952193424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.802307477706718</v>
+        <v>0.8067230045116875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8689100164222694</v>
+        <v>0.8703573730963131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -4721,19 +4721,19 @@
         <v>139963</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129397</v>
+        <v>130638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147532</v>
+        <v>148313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8608643758235343</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.79587919026376</v>
+        <v>0.8035080301083729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9074216046620052</v>
+        <v>0.9122262296467548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>549</v>
@@ -4742,19 +4742,19 @@
         <v>577818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>559170</v>
+        <v>559211</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>596447</v>
+        <v>596853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8453413272149879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8180594828197811</v>
+        <v>0.8181200694113298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8725953600822727</v>
+        <v>0.8731898044812549</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>83093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68291</v>
+        <v>67537</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102988</v>
+        <v>100687</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1595033047806576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1310899835777307</v>
+        <v>0.1296426269036869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1976925222932821</v>
+        <v>0.1932769954883131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -4792,19 +4792,19 @@
         <v>22621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15052</v>
+        <v>14271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33187</v>
+        <v>31946</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1391356241764658</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09257839533799495</v>
+        <v>0.08777377035324521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2041208097362401</v>
+        <v>0.1964919698916273</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>102</v>
@@ -4813,19 +4813,19 @@
         <v>105714</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87085</v>
+        <v>86679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124362</v>
+        <v>124321</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1546586727850121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1274046399177272</v>
+        <v>0.1268101955187451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1819405171802188</v>
+        <v>0.1818799305886701</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>903618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>875037</v>
+        <v>876336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>930990</v>
+        <v>930627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.790292745551359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7652961329566651</v>
+        <v>0.7664321062713927</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8142314352901413</v>
+        <v>0.8139139559356782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>660</v>
@@ -4938,19 +4938,19 @@
         <v>686238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>664196</v>
+        <v>665326</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>706234</v>
+        <v>706744</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8346454086320917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8078365394068668</v>
+        <v>0.8092113180699857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8589655772309903</v>
+        <v>0.8595865629755546</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1526</v>
@@ -4959,19 +4959,19 @@
         <v>1589856</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1554158</v>
+        <v>1555015</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1625187</v>
+        <v>1623652</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8088451443364372</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7906833891564903</v>
+        <v>0.7911194457668573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8268196934601455</v>
+        <v>0.8260385892189389</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>239779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>212407</v>
+        <v>212770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>268360</v>
+        <v>267061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2097072544486411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1857685647098588</v>
+        <v>0.1860860440643219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.234703867043335</v>
+        <v>0.2335678937286073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -5009,19 +5009,19 @@
         <v>135953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115957</v>
+        <v>115447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157995</v>
+        <v>156865</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1653545913679084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1410344227690096</v>
+        <v>0.1404134370244453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1921634605931331</v>
+        <v>0.1907886819300142</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>366</v>
@@ -5030,19 +5030,19 @@
         <v>375732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>340401</v>
+        <v>341936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>411430</v>
+        <v>410573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1911548556635628</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1731803065398545</v>
+        <v>0.1739614107810611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2093166108435097</v>
+        <v>0.2088805542331427</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>496045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>475570</v>
+        <v>474059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>517738</v>
+        <v>513365</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8059134941533517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7726491824806669</v>
+        <v>0.7701942307248557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8411581815585807</v>
+        <v>0.8340533135542063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>585</v>
@@ -5155,19 +5155,19 @@
         <v>621773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>599814</v>
+        <v>600138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>640105</v>
+        <v>640343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.848077711527119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8181264123871651</v>
+        <v>0.8185680064366793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8730814914973674</v>
+        <v>0.8734066863416986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1064</v>
@@ -5176,19 +5176,19 @@
         <v>1117818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1089295</v>
+        <v>1088560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1145867</v>
+        <v>1143334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8288346977413917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8076859012751914</v>
+        <v>0.8071409043987172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8496322587575432</v>
+        <v>0.8477539653594499</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>119461</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97768</v>
+        <v>102141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139936</v>
+        <v>141447</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1940865058466483</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1588418184414191</v>
+        <v>0.1659466864457936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.227350817519333</v>
+        <v>0.2298057692751441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -5226,19 +5226,19 @@
         <v>111383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93051</v>
+        <v>92813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133342</v>
+        <v>133018</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.151922288472881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1269185085026327</v>
+        <v>0.1265933136583016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1818735876128348</v>
+        <v>0.181431993563321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>223</v>
@@ -5247,19 +5247,19 @@
         <v>230844</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202795</v>
+        <v>205328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>259367</v>
+        <v>260102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1711653022586082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1503677412424561</v>
+        <v>0.1522460346405503</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1923140987248069</v>
+        <v>0.1928590956012828</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>220437</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205623</v>
+        <v>205282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>233720</v>
+        <v>234716</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7676851141371265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7160951625797357</v>
+        <v>0.7149075346081891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8139426643720407</v>
+        <v>0.8174114687836259</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>798</v>
@@ -5372,19 +5372,19 @@
         <v>877456</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>850541</v>
+        <v>852649</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>901296</v>
+        <v>902965</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8159198836605607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7908928867792127</v>
+        <v>0.7928528850399016</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8380880939270331</v>
+        <v>0.8396397544763212</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1006</v>
@@ -5393,19 +5393,19 @@
         <v>1097893</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1067554</v>
+        <v>1067350</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1125402</v>
+        <v>1127743</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8057549447919476</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7834893238919693</v>
+        <v>0.7833397036869316</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8259440989118189</v>
+        <v>0.8276624382354175</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>66708</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53425</v>
+        <v>52429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81522</v>
+        <v>81863</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2323148858628735</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1860573356279593</v>
+        <v>0.182588531216374</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2839048374202642</v>
+        <v>0.2850924653918109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -5443,19 +5443,19 @@
         <v>197963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174123</v>
+        <v>172454</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224878</v>
+        <v>222770</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1840801163394394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.161911906072967</v>
+        <v>0.1603602455236789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2091071132207874</v>
+        <v>0.2071471149600984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>252</v>
@@ -5464,19 +5464,19 @@
         <v>264671</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237162</v>
+        <v>234821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>295010</v>
+        <v>295214</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1942450552080524</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.174055901088181</v>
+        <v>0.1723375617645825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2165106761080307</v>
+        <v>0.2166602963130684</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>2662126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2607265</v>
+        <v>2611520</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2706197</v>
+        <v>2708748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7903424318816804</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7740550468392258</v>
+        <v>0.7753183582925752</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8034264582773758</v>
+        <v>0.8041837134254156</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2698</v>
@@ -5589,19 +5589,19 @@
         <v>2880231</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2831844</v>
+        <v>2832176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2925990</v>
+        <v>2923805</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8208747123135622</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8070843124235628</v>
+        <v>0.8071788595861615</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8339160679580931</v>
+        <v>0.8332933306136706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5233</v>
@@ -5610,19 +5610,19 @@
         <v>5542357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5473580</v>
+        <v>5478952</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5608177</v>
+        <v>5610875</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8059202727660874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7959193080733235</v>
+        <v>0.7967004940245023</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8154912536997311</v>
+        <v>0.815883463817345</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>706194</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>662123</v>
+        <v>659572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>761055</v>
+        <v>756800</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2096575681183196</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1965735417226242</v>
+        <v>0.1958162865745844</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2259449531607742</v>
+        <v>0.2246816417074248</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>607</v>
@@ -5660,19 +5660,19 @@
         <v>628503</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582744</v>
+        <v>584929</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>676890</v>
+        <v>676558</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1791252876864377</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1660839320419069</v>
+        <v>0.1667066693863294</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1929156875764372</v>
+        <v>0.1928211404138384</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1281</v>
@@ -5681,19 +5681,19 @@
         <v>1334697</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1268877</v>
+        <v>1266179</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1403474</v>
+        <v>1398102</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1940797272339126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1845087463002689</v>
+        <v>0.184116536182655</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2040806919266765</v>
+        <v>0.2032995059754978</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>307769</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>281503</v>
+        <v>282191</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331662</v>
+        <v>330330</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5651252543858818</v>
+        <v>0.5651252543858819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5168954536607892</v>
+        <v>0.518159923119374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6089973611181366</v>
+        <v>0.6065523345464982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>366</v>
@@ -6048,19 +6048,19 @@
         <v>253150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>233597</v>
+        <v>231449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>270979</v>
+        <v>271001</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5230030574497398</v>
+        <v>0.5230030574497397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4826062833407788</v>
+        <v>0.4781691537474995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5598375192973853</v>
+        <v>0.559882279499764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>681</v>
@@ -6069,19 +6069,19 @@
         <v>560919</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>529535</v>
+        <v>530747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>589470</v>
+        <v>597017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5453043337263208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5147935380920319</v>
+        <v>0.5159718969046803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5730602748941961</v>
+        <v>0.5803969570604837</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>236834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212941</v>
+        <v>214273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263100</v>
+        <v>262412</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4348747456141182</v>
+        <v>0.4348747456141183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3910026388818634</v>
+        <v>0.3934476654535018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4831045463392109</v>
+        <v>0.4818400768806261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>314</v>
@@ -6119,19 +6119,19 @@
         <v>230882</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213053</v>
+        <v>213031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250435</v>
+        <v>252583</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4769969425502603</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4401624807026145</v>
+        <v>0.4401177205002359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5173937166592207</v>
+        <v>0.5218308462525005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>546</v>
@@ -6140,19 +6140,19 @@
         <v>467716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>439165</v>
+        <v>431618</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499100</v>
+        <v>497888</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4546956662736791</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.426939725105804</v>
+        <v>0.4196030429395166</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4852064619079683</v>
+        <v>0.4840281030953199</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>310796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>287355</v>
+        <v>286127</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>331880</v>
+        <v>332650</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6455202495381713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5968330777046034</v>
+        <v>0.5942833608562116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6893117049173129</v>
+        <v>0.6909114106475718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>381</v>
@@ -6265,19 +6265,19 @@
         <v>266685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248342</v>
+        <v>249741</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>284003</v>
+        <v>283817</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6344422349870352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5908055621494623</v>
+        <v>0.5941334200131361</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6756437337643622</v>
+        <v>0.6751992783861942</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>698</v>
@@ -6286,19 +6286,19 @@
         <v>577481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>547074</v>
+        <v>547734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>603910</v>
+        <v>606827</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6403566545362207</v>
+        <v>0.6403566545362209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6066392921037003</v>
+        <v>0.6073716365947566</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.669663469597229</v>
+        <v>0.6728977594319957</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>170670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149586</v>
+        <v>148816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>194111</v>
+        <v>195339</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3544797504618286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3106882950826872</v>
+        <v>0.3090885893524279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4031669222953966</v>
+        <v>0.4057166391437884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>205</v>
@@ -6336,19 +6336,19 @@
         <v>153660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136342</v>
+        <v>136528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172003</v>
+        <v>170604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3655577650129647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3243562662356379</v>
+        <v>0.3248007216138057</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4091944378505378</v>
+        <v>0.405866579986864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>367</v>
@@ -6357,19 +6357,19 @@
         <v>324330</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>297901</v>
+        <v>294984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>354737</v>
+        <v>354077</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3596433454637792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3303365304027711</v>
+        <v>0.3271022405680046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3933607078962997</v>
+        <v>0.3926283634052433</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>292524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>271378</v>
+        <v>270950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>315566</v>
+        <v>314058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6275166936563467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5821544356734677</v>
+        <v>0.5812364954089119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.676945279929303</v>
+        <v>0.6737094835556461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>188</v>
@@ -6482,19 +6482,19 @@
         <v>119289</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>107695</v>
+        <v>107639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130339</v>
+        <v>129677</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6450262706093493</v>
+        <v>0.6450262706093495</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5823341238045966</v>
+        <v>0.5820352181278348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7047808507939899</v>
+        <v>0.7012018152798267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>498</v>
@@ -6503,19 +6503,19 @@
         <v>411812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>387249</v>
+        <v>386168</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>436897</v>
+        <v>432715</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6324900630574024</v>
+        <v>0.6324900630574025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5947635530634716</v>
+        <v>0.5931041654454373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6710164831199634</v>
+        <v>0.6645942713376596</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>173638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150596</v>
+        <v>152104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194784</v>
+        <v>195212</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3724833063436532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.323054720070697</v>
+        <v>0.3262905164443539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4178455643265323</v>
+        <v>0.4187635045910882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -6553,19 +6553,19 @@
         <v>65647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54597</v>
+        <v>55259</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77241</v>
+        <v>77297</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3549737293906505</v>
+        <v>0.3549737293906506</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2952191492060104</v>
+        <v>0.2987981847201737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4176658761954035</v>
+        <v>0.4179647818721653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>270</v>
@@ -6574,19 +6574,19 @@
         <v>239285</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>214200</v>
+        <v>218382</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>263848</v>
+        <v>264929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3675099369425975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3289835168800365</v>
+        <v>0.3354057286623404</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4052364469365285</v>
+        <v>0.4068958345545627</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>728937</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>693994</v>
+        <v>692144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>763666</v>
+        <v>762763</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6476703630334476</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6166229109320053</v>
+        <v>0.6149790914898707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6785280233673495</v>
+        <v>0.677725440339589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>799</v>
@@ -6699,19 +6699,19 @@
         <v>538945</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>513273</v>
+        <v>514824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>565337</v>
+        <v>562115</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6343347075595986</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6041182214725271</v>
+        <v>0.6059442311326286</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6653978815797771</v>
+        <v>0.6616049582385145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1540</v>
@@ -6720,19 +6720,19 @@
         <v>1267882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1224438</v>
+        <v>1227525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1306359</v>
+        <v>1313228</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6419337974711029</v>
+        <v>0.641933797471103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6199378436074782</v>
+        <v>0.6215007085239321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6614148444777428</v>
+        <v>0.6648923560502414</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>396538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361809</v>
+        <v>362712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>431481</v>
+        <v>433331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3523296369665523</v>
+        <v>0.3523296369665524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3214719766326504</v>
+        <v>0.322274559660411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3833770890679948</v>
+        <v>0.3850209085101295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -6770,19 +6770,19 @@
         <v>310678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>284286</v>
+        <v>287508</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336350</v>
+        <v>334799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3656652924404013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3346021184202232</v>
+        <v>0.3383950417614853</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.395881778527473</v>
+        <v>0.3940557688673713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>783</v>
@@ -6791,19 +6791,19 @@
         <v>707216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>668739</v>
+        <v>661870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750660</v>
+        <v>747573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3580662025288971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3385851555222573</v>
+        <v>0.3351076439497584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3800621563925219</v>
+        <v>0.3784992914760679</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>382876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>355144</v>
+        <v>354901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>406281</v>
+        <v>407276</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6852054932709705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6355752240285109</v>
+        <v>0.6351413138547672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7270925682934261</v>
+        <v>0.7288736767942583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>918</v>
@@ -6916,19 +6916,19 @@
         <v>582024</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>557659</v>
+        <v>557880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>601871</v>
+        <v>603136</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7104096852454119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6806709516349406</v>
+        <v>0.6809400831718869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7346354989392019</v>
+        <v>0.7361787722842357</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1304</v>
@@ -6937,19 +6937,19 @@
         <v>964899</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>927995</v>
+        <v>929383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>996688</v>
+        <v>999420</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7001898561769048</v>
+        <v>0.7001898561769047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6734094764730114</v>
+        <v>0.67441725379581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7232578857637488</v>
+        <v>0.725240318954411</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>175899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152494</v>
+        <v>151499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203631</v>
+        <v>203874</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3147945067290296</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.272907431706574</v>
+        <v>0.2711263232057416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3644247759714888</v>
+        <v>0.3648586861452326</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>352</v>
@@ -6987,19 +6987,19 @@
         <v>237255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>217408</v>
+        <v>216143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>261620</v>
+        <v>261399</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.289590314754588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2653645010607981</v>
+        <v>0.2638212277157641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3193290483650587</v>
+        <v>0.3190599168281128</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -7008,19 +7008,19 @@
         <v>413155</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>381366</v>
+        <v>378634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>450059</v>
+        <v>448671</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2998101438230952</v>
+        <v>0.2998101438230953</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2767421142362512</v>
+        <v>0.274759681045589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3265905235269885</v>
+        <v>0.3255827462041898</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>105125</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82618</v>
+        <v>83669</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130859</v>
+        <v>130350</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.446611008706069</v>
+        <v>0.4466110087060691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3509947777961114</v>
+        <v>0.3554588827064936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5559407653929156</v>
+        <v>0.5537798105071394</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>769</v>
@@ -7133,19 +7133,19 @@
         <v>535501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>507267</v>
+        <v>506958</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>562434</v>
+        <v>561037</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6459818655926757</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6119225637393679</v>
+        <v>0.6115507448228213</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6784717763168884</v>
+        <v>0.67678594363085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>825</v>
@@ -7154,19 +7154,19 @@
         <v>640626</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>602709</v>
+        <v>599672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>679860</v>
+        <v>677830</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6018907943711725</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5662663744162624</v>
+        <v>0.563413001849841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6387522761625135</v>
+        <v>0.6368447509548936</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>130258</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104524</v>
+        <v>105033</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152765</v>
+        <v>151714</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5533889912939313</v>
+        <v>0.5533889912939314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4440592346070841</v>
+        <v>0.4462201894928606</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6490052222038883</v>
+        <v>0.6445411172935063</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>369</v>
@@ -7204,19 +7204,19 @@
         <v>293471</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266538</v>
+        <v>267935</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>321705</v>
+        <v>322014</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3540181344073243</v>
+        <v>0.3540181344073244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3215282236831112</v>
+        <v>0.3232140563691498</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.388077436260632</v>
+        <v>0.3884492551771785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>424</v>
@@ -7225,19 +7225,19 @@
         <v>423730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384496</v>
+        <v>386526</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>461647</v>
+        <v>464684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3981092056288274</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3612477238374865</v>
+        <v>0.3631552490451064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4337336255837377</v>
+        <v>0.4365869981501591</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>2128026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2055560</v>
+        <v>2067789</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2191736</v>
+        <v>2194525</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.623713747321035</v>
+        <v>0.6237137473210349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6024744649752475</v>
+        <v>0.6060585076545646</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6423868610017511</v>
+        <v>0.6432042456316736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3421</v>
@@ -7350,19 +7350,19 @@
         <v>2295593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2245627</v>
+        <v>2239415</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2347799</v>
+        <v>2344989</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6399424901700783</v>
+        <v>0.6399424901700784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6260135394048734</v>
+        <v>0.6242817362870937</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.654495931342912</v>
+        <v>0.6537126886460405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5546</v>
@@ -7371,19 +7371,19 @@
         <v>4423619</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4347115</v>
+        <v>4337035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4504222</v>
+        <v>4505765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6320313797208007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6211007396514149</v>
+        <v>0.6196605168695702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.643547656879601</v>
+        <v>0.6437680356955431</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1283837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1220127</v>
+        <v>1217338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1356303</v>
+        <v>1344074</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.376286252678965</v>
+        <v>0.3762862526789651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3576131389982488</v>
+        <v>0.3567957543683266</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3975255350247524</v>
+        <v>0.3939414923454355</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1751</v>
@@ -7421,19 +7421,19 @@
         <v>1291593</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1239387</v>
+        <v>1242197</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1341559</v>
+        <v>1347771</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3600575098299215</v>
+        <v>0.3600575098299216</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3455040686570882</v>
+        <v>0.3462873113539594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3739864605951265</v>
+        <v>0.3757182637129063</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2895</v>
@@ -7442,19 +7442,19 @@
         <v>2575431</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2494828</v>
+        <v>2493285</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2651935</v>
+        <v>2662015</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3679686202791993</v>
+        <v>0.3679686202791994</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.356452343120399</v>
+        <v>0.356231964304457</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.378899260348585</v>
+        <v>0.3803394831304298</v>
       </c>
     </row>
     <row r="24">
